--- a/Output/point_estimates_output_tableV.xlsx
+++ b/Output/point_estimates_output_tableV.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Point Estimates (Table V)</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Spec 1: educ</t>
+  </si>
+  <si>
+    <t>Spec 2: educ</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:H5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -121,6 +124,32 @@
       <c r="C3">
         <v>0.071081045797577347</v>
       </c>
+      <c r="D3">
+        <v>0.089115461343038868</v>
+      </c>
+      <c r="E3">
+        <v>0.092876416468204465</v>
+      </c>
+      <c r="F3">
+        <v>0.09269889145030466</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.071073663201647541</v>
+      </c>
+      <c r="D5">
+        <v>0.073001372071222731</v>
+      </c>
+      <c r="E5">
+        <v>0.081149250469840326</v>
+      </c>
+      <c r="F5">
+        <v>0.080712846167736177</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
